--- a/trunk/ProjectDocuments/BangDanhGiaThanhVien.xlsx
+++ b/trunk/ProjectDocuments/BangDanhGiaThanhVien.xlsx
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,18 +220,33 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="36"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color rgb="FF006100"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="36"/>
-      <color rgb="FF9C0006"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF9C6500"/>
       <name val="Times New Roman"/>
@@ -291,52 +306,63 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -636,17 +662,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
-    <col min="5" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45.7109375" style="1" customWidth="1"/>
     <col min="13" max="16" width="9.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="1" customWidth="1"/>
@@ -654,810 +680,810 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" ht="40.5">
-      <c r="A3" s="4" t="s">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" s="18" customFormat="1" ht="40.5">
+      <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="15">
+      <c r="A4" s="8">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1</v>
-      </c>
-      <c r="K4" s="14">
-        <v>1</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="15"/>
-      <c r="B5" s="9">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14">
-        <v>1</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="15"/>
-      <c r="B6" s="9">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14">
-        <v>1</v>
-      </c>
-      <c r="K6" s="14">
-        <v>1</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14">
-        <v>1</v>
-      </c>
-      <c r="K7" s="14">
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
-        <v>1</v>
-      </c>
-      <c r="K8" s="14">
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="17">
+      <c r="A9" s="10">
         <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18">
-        <v>1</v>
-      </c>
-      <c r="I9" s="18">
-        <v>1</v>
-      </c>
-      <c r="J9" s="18">
-        <v>1</v>
-      </c>
-      <c r="K9" s="18">
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="17"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="18">
-        <v>1</v>
-      </c>
-      <c r="I10" s="18">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18">
-        <v>1</v>
-      </c>
-      <c r="L10" s="13"/>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="17"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
         <v>0.75</v>
       </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18">
-        <v>1</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18">
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
         <v>0.75</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="17"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="18">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18">
-        <v>1</v>
-      </c>
-      <c r="I12" s="18">
-        <v>1</v>
-      </c>
-      <c r="J12" s="18">
-        <v>1</v>
-      </c>
-      <c r="K12" s="18">
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="17"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
-        <v>1</v>
-      </c>
-      <c r="J13" s="18">
-        <v>1</v>
-      </c>
-      <c r="K13" s="18">
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="15">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="14">
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15"/>
-      <c r="B15" s="9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1</v>
-      </c>
-      <c r="I15" s="14">
-        <v>1</v>
-      </c>
-      <c r="J15" s="14">
-        <v>1</v>
-      </c>
-      <c r="K15" s="14">
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="15"/>
-      <c r="B16" s="9">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14">
-        <v>1</v>
-      </c>
-      <c r="H16" s="14">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14">
-        <v>1</v>
-      </c>
-      <c r="J16" s="14">
-        <v>1</v>
-      </c>
-      <c r="K16" s="14">
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="15"/>
-      <c r="B17" s="9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4">
         <v>4</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14">
-        <v>1</v>
-      </c>
-      <c r="G17" s="14">
-        <v>1</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1</v>
-      </c>
-      <c r="I17" s="14">
-        <v>1</v>
-      </c>
-      <c r="J17" s="14">
-        <v>1</v>
-      </c>
-      <c r="K17" s="14">
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="15"/>
-      <c r="B18" s="9">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4">
         <v>5</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14">
-        <v>1</v>
-      </c>
-      <c r="I18" s="14">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14">
-        <v>1</v>
-      </c>
-      <c r="K18" s="14">
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="17">
+      <c r="A19" s="10">
         <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1</v>
-      </c>
-      <c r="I19" s="18">
-        <v>1</v>
-      </c>
-      <c r="J19" s="18">
-        <v>1</v>
-      </c>
-      <c r="K19" s="18">
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="17"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1</v>
-      </c>
-      <c r="H20" s="18">
-        <v>1</v>
-      </c>
-      <c r="I20" s="18">
-        <v>1</v>
-      </c>
-      <c r="J20" s="18">
-        <v>1</v>
-      </c>
-      <c r="K20" s="18">
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="17"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>1</v>
-      </c>
-      <c r="J21" s="18">
-        <v>1</v>
-      </c>
-      <c r="K21" s="18">
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="17"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3">
         <v>4</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="18">
-        <v>1</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1</v>
-      </c>
-      <c r="I22" s="18">
-        <v>1</v>
-      </c>
-      <c r="J22" s="18">
-        <v>1</v>
-      </c>
-      <c r="K22" s="18">
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="17"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3">
         <v>5</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="18">
-        <v>1</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18">
-        <v>1</v>
-      </c>
-      <c r="I23" s="18">
-        <v>1</v>
-      </c>
-      <c r="J23" s="18">
-        <v>1</v>
-      </c>
-      <c r="K23" s="18">
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1</v>
+      </c>
+      <c r="K23" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="15">
+      <c r="A24" s="8">
         <v>15</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="9">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="15"/>
-      <c r="B26" s="9">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="15"/>
-      <c r="B27" s="9">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4">
         <v>4</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="15"/>
-      <c r="B28" s="9">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4">
         <v>5</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
